--- a/Hands.xlsx
+++ b/Hands.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5069,6 +5069,924 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Mill 1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>12</v>
+      </c>
+      <c r="G137" t="n">
+        <v>24</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Mill 1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>12</v>
+      </c>
+      <c r="G138" t="n">
+        <v>24</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Mill 1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>12</v>
+      </c>
+      <c r="G139" t="n">
+        <v>24</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Mill 1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>12</v>
+      </c>
+      <c r="G140" t="n">
+        <v>24</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Mill 1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>12</v>
+      </c>
+      <c r="G141" t="n">
+        <v>24</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Mill 1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>12</v>
+      </c>
+      <c r="G142" t="n">
+        <v>24</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>12</v>
+      </c>
+      <c r="G143" t="n">
+        <v>16</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>12</v>
+      </c>
+      <c r="G144" t="n">
+        <v>16</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>12</v>
+      </c>
+      <c r="G145" t="n">
+        <v>16</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>12</v>
+      </c>
+      <c r="G146" t="n">
+        <v>16</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>12</v>
+      </c>
+      <c r="G147" t="n">
+        <v>12</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>12</v>
+      </c>
+      <c r="G148" t="n">
+        <v>18</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>12</v>
+      </c>
+      <c r="G149" t="n">
+        <v>24</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Mill 2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Breaker</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>12</v>
+      </c>
+      <c r="G150" t="n">
+        <v>24</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>12</v>
+      </c>
+      <c r="G151" t="n">
+        <v>24</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>12</v>
+      </c>
+      <c r="G152" t="n">
+        <v>24</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>12</v>
+      </c>
+      <c r="G153" t="n">
+        <v>24</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>12</v>
+      </c>
+      <c r="G154" t="n">
+        <v>24</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>12</v>
+      </c>
+      <c r="G155" t="n">
+        <v>24</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>12</v>
+      </c>
+      <c r="G156" t="n">
+        <v>24</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>12</v>
+      </c>
+      <c r="G157" t="n">
+        <v>24</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Mill 3</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>12</v>
+      </c>
+      <c r="G158" t="n">
+        <v>24</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Mill 4</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>12</v>
+      </c>
+      <c r="G159" t="n">
+        <v>24</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Mill 4</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" t="n">
+        <v>24</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Mill 4</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>12</v>
+      </c>
+      <c r="G161" t="n">
+        <v>24</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Mill 4</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>12</v>
+      </c>
+      <c r="G162" t="n">
+        <v>24</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>JJMLN</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Mill 4</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Mechanical</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>12</v>
+      </c>
+      <c r="G163" t="n">
+        <v>24</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
